--- a/BackTest/2019-10-30 BackTest VET.xlsx
+++ b/BackTest/2019-10-30 BackTest VET.xlsx
@@ -3846,13 +3846,17 @@
         <v>4.630499999999997</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K99" t="n">
+        <v>4.57</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3881,14 +3885,22 @@
         <v>4.623499999999998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3916,14 +3928,22 @@
         <v>4.616499999999998</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3971,22 @@
         <v>4.609999999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +4014,22 @@
         <v>4.603499999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K103" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +4057,22 @@
         <v>4.597999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K104" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +4100,22 @@
         <v>4.591999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +4143,22 @@
         <v>4.584499999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +4186,22 @@
         <v>4.577499999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K107" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +4229,22 @@
         <v>4.573</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4278,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +4354,22 @@
         <v>4.562</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K111" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +4397,22 @@
         <v>4.5605</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4345,9 +4449,13 @@
         <v>4.55</v>
       </c>
       <c r="K113" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
+        <v>4.57</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4381,14 +4489,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="K114" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -4427,7 +4535,7 @@
         <v>4.54</v>
       </c>
       <c r="K115" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4470,7 +4578,7 @@
         <v>4.54</v>
       </c>
       <c r="K116" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4513,7 +4621,7 @@
         <v>4.54</v>
       </c>
       <c r="K117" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4553,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="K118" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4590,16 +4698,14 @@
         <v>4.547500000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4633,16 +4739,14 @@
         <v>4.544500000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4676,16 +4780,14 @@
         <v>4.542500000000001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4719,16 +4821,14 @@
         <v>4.541000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4762,16 +4862,14 @@
         <v>4.539500000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4805,16 +4903,14 @@
         <v>4.538000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4848,16 +4944,14 @@
         <v>4.536000000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4891,16 +4985,14 @@
         <v>4.535500000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4934,16 +5026,14 @@
         <v>4.537000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>4.57</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4977,16 +5067,14 @@
         <v>4.539500000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>4.59</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5020,16 +5108,14 @@
         <v>4.539000000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5063,16 +5149,14 @@
         <v>4.537500000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5106,16 +5190,14 @@
         <v>4.5365</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>4.52</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5149,16 +5231,14 @@
         <v>4.543</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>4.68</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5192,16 +5272,14 @@
         <v>4.543</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>4.55</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5235,16 +5313,14 @@
         <v>4.5555</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>4.78</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5278,16 +5354,14 @@
         <v>4.5555</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5328,7 +5402,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5362,16 +5436,14 @@
         <v>4.565999999999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5412,7 +5484,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5453,7 +5525,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5494,7 +5566,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5535,7 +5607,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5576,7 +5648,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5617,7 +5689,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5658,7 +5730,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5699,7 +5771,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5740,7 +5812,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5781,7 +5853,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5822,7 +5894,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5863,7 +5935,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5904,7 +5976,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5945,7 +6017,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5986,7 +6058,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6027,7 +6099,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6068,7 +6140,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6109,7 +6181,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6150,7 +6222,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6191,7 +6263,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6232,7 +6304,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6273,7 +6345,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6314,7 +6386,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6355,7 +6427,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6396,7 +6468,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6437,7 +6509,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6478,7 +6550,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6519,7 +6591,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6560,7 +6632,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6601,7 +6673,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6642,7 +6714,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6683,7 +6755,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6724,7 +6796,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6765,7 +6837,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6806,7 +6878,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6847,7 +6919,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6888,7 +6960,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6925,54 +6997,60 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F176" t="n">
+        <v>448772.5838</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4.980499999999997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1.093901098901099</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F176" t="n">
-        <v>448772.5838</v>
-      </c>
-      <c r="G176" t="n">
-        <v>4.980499999999997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>1</v>
+        <v>1.100032822757112</v>
       </c>
     </row>
     <row r="177">
@@ -7141,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -7176,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -7281,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -7316,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -7351,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7386,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest VET.xlsx
+++ b/BackTest/2019-10-30 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3685,7 +3685,7 @@
         <v>-33974470.28635767</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-34006647.71425767</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-33936412.08625767</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-33957049.78945767</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-34525315.26225767</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5302,10 +5302,14 @@
         <v>-34888424.28405766</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4.63</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5335,11 +5339,19 @@
         <v>-35386424.28405766</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5380,19 @@
         <v>-35543412.48635766</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5421,19 @@
         <v>-35295528.89775766</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5462,19 @@
         <v>-35295528.89775766</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5503,19 @@
         <v>-35316922.92765766</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5544,19 @@
         <v>-34923589.01455766</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5585,19 @@
         <v>-34912497.84325766</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5626,19 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5667,19 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5708,19 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5749,19 @@
         <v>-34900143.77245765</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J160" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5790,19 @@
         <v>-34905143.77245765</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5831,19 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5872,19 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J163" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5913,19 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J164" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5954,19 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5995,19 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6036,19 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6077,19 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J168" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6118,19 @@
         <v>-34928085.44769625</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6159,19 @@
         <v>-35620878.57269625</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="J170" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6200,19 @@
         <v>-35619878.57269625</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6241,19 @@
         <v>-35619878.57269625</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6282,19 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6323,19 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J174" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6364,19 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J175" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6405,19 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J176" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6446,19 @@
         <v>-35659144.89649625</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J177" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6487,19 @@
         <v>-35666518.45849625</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J178" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6528,19 @@
         <v>-35666518.45849625</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J179" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,15 +6569,19 @@
         <v>-35551334.13179625</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>4.51</v>
       </c>
       <c r="J180" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+        <v>4.63</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,17 +6610,17 @@
         <v>-35551334.13179625</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>4.53</v>
       </c>
       <c r="J181" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6403,17 +6651,17 @@
         <v>-35551234.57239625</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>4.53</v>
       </c>
       <c r="J182" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6444,15 +6692,19 @@
         <v>-35551234.57239625</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>4.54</v>
       </c>
       <c r="J183" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+        <v>4.63</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6481,17 +6733,17 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>4.54</v>
       </c>
       <c r="J184" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6522,17 +6774,17 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>4.53</v>
       </c>
       <c r="J185" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6563,17 +6815,17 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>4.53</v>
       </c>
       <c r="J186" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6604,13 +6856,13 @@
         <v>-35508146.07239625</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>4.53</v>
       </c>
       <c r="J187" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6645,13 +6897,13 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>4.59</v>
       </c>
       <c r="J188" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6686,13 +6938,13 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>4.53</v>
       </c>
       <c r="J189" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6727,13 +6979,13 @@
         <v>-35573536.36089625</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>4.53</v>
       </c>
       <c r="J190" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6768,13 +7020,13 @@
         <v>-35642711.00749625</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>4.52</v>
       </c>
       <c r="J191" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6809,11 +7061,13 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J192" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6848,11 +7102,13 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J193" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6887,11 +7143,13 @@
         <v>-35596949.35979625</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J194" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6926,11 +7184,13 @@
         <v>-35582512.04636341</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>4.54</v>
+      </c>
       <c r="J195" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6965,11 +7225,13 @@
         <v>-35585512.04636341</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J196" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7008,7 +7270,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7043,11 +7305,13 @@
         <v>-35244513.23626341</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>4.61</v>
+      </c>
       <c r="J198" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7086,7 +7350,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7125,7 +7389,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7164,7 +7428,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7203,7 +7467,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7242,7 +7506,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7281,7 +7545,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7320,7 +7584,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7359,7 +7623,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7398,7 +7662,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7437,7 +7701,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7476,7 +7740,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7515,7 +7779,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7554,7 +7818,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7593,7 +7857,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7632,7 +7896,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7671,7 +7935,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7710,7 +7974,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7749,7 +8013,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7788,7 +8052,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7827,7 +8091,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7866,7 +8130,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7905,7 +8169,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7944,7 +8208,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7983,7 +8247,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8022,7 +8286,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8061,7 +8325,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8100,7 +8364,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8139,7 +8403,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8178,7 +8442,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8217,7 +8481,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8252,914 +8516,1082 @@
         <v>-32789480.07794451</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
       <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F230" t="n">
+        <v>24453.7125</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-32789480.07794451</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F231" t="n">
+        <v>578489.5507</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-32210990.52724451</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F232" t="n">
+        <v>631175.3698</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-31579815.15744451</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F233" t="n">
+        <v>742856.7058999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-30836958.45154451</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>103747.5944</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-30940706.04594451</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F235" t="n">
+        <v>448772.5838</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-30491933.46214451</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D236" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F236" t="n">
+        <v>915546.7674</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-31407480.22954451</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F237" t="n">
+        <v>272042.6503</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-31679522.87984451</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F238" t="n">
+        <v>150</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-31679522.87984451</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="J238" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8237.527700000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-31679522.87984451</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="J239" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F240" t="n">
+        <v>125098.7975</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-31554424.08234451</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="J240" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>161984.2</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-31392439.88234451</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C242" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2989</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-31389450.88234451</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F243" t="n">
+        <v>90537.8486</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-31479988.73094451</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>118414.4212</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-31361574.30974451</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C245" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1313828.5433</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-32675402.85304451</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5</v>
+      </c>
+      <c r="D246" t="n">
+        <v>5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5</v>
+      </c>
+      <c r="F246" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-32743402.85304451</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C247" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D247" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F247" t="n">
+        <v>10</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-32743392.85304451</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6020</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-32749412.85304451</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C249" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D249" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F249" t="n">
+        <v>45359.2814</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-32704053.57164451</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C250" t="n">
+        <v>5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>261457.5063</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-32965511.07794451</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D251" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F251" t="n">
+        <v>10</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-32965501.07794451</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D252" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F252" t="n">
+        <v>104854.3308</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-33070355.40874451</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>233008.5317</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-33303363.94044451</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D254" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F254" t="n">
+        <v>9295.5128</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-33294068.42764451</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D255" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>19216.6445</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-33294068.42764451</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D256" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>70816</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-33364884.42764451</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1.087511013215859</v>
-      </c>
-      <c r="M229" t="n">
-        <v>1.104212860310422</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="D230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F230" t="n">
-        <v>24453.7125</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-32789480.07794451</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D231" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="E231" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F231" t="n">
-        <v>578489.5507</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-32210990.52724451</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E232" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F232" t="n">
-        <v>631175.3698</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-31579815.15744451</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D233" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E233" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F233" t="n">
-        <v>742856.7058999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-30836958.45154451</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5</v>
-      </c>
-      <c r="D234" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E234" t="n">
-        <v>5</v>
-      </c>
-      <c r="F234" t="n">
-        <v>103747.5944</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-30940706.04594451</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C235" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D235" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E235" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>448772.5838</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-30491933.46214451</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D236" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E236" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F236" t="n">
-        <v>915546.7674</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-31407480.22954451</v>
-      </c>
-      <c r="H236" t="n">
-        <v>3</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D237" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E237" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F237" t="n">
-        <v>272042.6503</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-31679522.87984451</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F238" t="n">
-        <v>150</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-31679522.87984451</v>
-      </c>
-      <c r="H238" t="n">
-        <v>3</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="C239" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D239" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E239" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F239" t="n">
-        <v>8237.527700000001</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-31679522.87984451</v>
-      </c>
-      <c r="H239" t="n">
-        <v>3</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F240" t="n">
-        <v>125098.7975</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-31554424.08234451</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>5</v>
-      </c>
-      <c r="C241" t="n">
-        <v>5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>161984.2</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-31392439.88234451</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="D242" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E242" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2989</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-31389450.88234451</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F243" t="n">
-        <v>90537.8486</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-31479988.73094451</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>5</v>
-      </c>
-      <c r="C244" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D244" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E244" t="n">
-        <v>5</v>
-      </c>
-      <c r="F244" t="n">
-        <v>118414.4212</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-31361574.30974451</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C245" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D245" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E245" t="n">
-        <v>5</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1313828.5433</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-32675402.85304451</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>5</v>
-      </c>
-      <c r="C246" t="n">
-        <v>5</v>
-      </c>
-      <c r="D246" t="n">
-        <v>5</v>
-      </c>
-      <c r="E246" t="n">
-        <v>5</v>
-      </c>
-      <c r="F246" t="n">
-        <v>68000</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-32743402.85304451</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C247" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E247" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F247" t="n">
-        <v>10</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-32743392.85304451</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>5</v>
-      </c>
-      <c r="C248" t="n">
-        <v>5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>5</v>
-      </c>
-      <c r="E248" t="n">
-        <v>5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>6020</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-32749412.85304451</v>
-      </c>
-      <c r="H248" t="n">
-        <v>3</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C249" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D249" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E249" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F249" t="n">
-        <v>45359.2814</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-32704053.57164451</v>
-      </c>
-      <c r="H249" t="n">
-        <v>3</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C250" t="n">
-        <v>5</v>
-      </c>
-      <c r="D250" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="E250" t="n">
-        <v>5</v>
-      </c>
-      <c r="F250" t="n">
-        <v>261457.5063</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-32965511.07794451</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="C251" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D251" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E251" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="F251" t="n">
-        <v>10</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-32965501.07794451</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="C252" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D252" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="E252" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F252" t="n">
-        <v>104854.3308</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-33070355.40874451</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="C253" t="n">
-        <v>5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E253" t="n">
-        <v>5</v>
-      </c>
-      <c r="F253" t="n">
-        <v>233008.5317</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-33303363.94044451</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D254" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E254" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F254" t="n">
-        <v>9295.5128</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-33294068.42764451</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>5</v>
-      </c>
-      <c r="C255" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D255" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E255" t="n">
-        <v>5</v>
-      </c>
-      <c r="F255" t="n">
-        <v>19216.6445</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-33294068.42764451</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C256" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="D256" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E256" t="n">
-        <v>5</v>
-      </c>
-      <c r="F256" t="n">
-        <v>70816</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-33364884.42764451</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>1.083552915766739</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1.077922077922078</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9184,7 +9616,7 @@
         <v>-33404136.94844451</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9217,7 +9649,7 @@
         <v>-34391811.38434451</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9382,7 +9814,7 @@
         <v>-35036705.2048445</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9415,7 +9847,7 @@
         <v>-35036705.2048445</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9448,7 +9880,7 @@
         <v>-35059225.3847445</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9481,7 +9913,7 @@
         <v>-34986521.2293445</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9514,7 +9946,7 @@
         <v>-34986501.2293445</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9547,7 +9979,7 @@
         <v>-34419501.2293445</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9580,7 +10012,7 @@
         <v>-34419501.2293445</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9613,7 +10045,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9646,7 +10078,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9679,7 +10111,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9712,7 +10144,7 @@
         <v>-35151118.81894451</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9745,7 +10177,7 @@
         <v>-35151118.81894451</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9778,7 +10210,7 @@
         <v>-34881829.27104451</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9811,7 +10243,7 @@
         <v>-34909829.27104451</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9844,7 +10276,7 @@
         <v>-34200096.56784451</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9877,7 +10309,7 @@
         <v>-34200096.56784451</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9910,7 +10342,7 @@
         <v>-33677965.99154451</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9943,7 +10375,7 @@
         <v>-33353738.30244451</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9976,7 +10408,7 @@
         <v>-33390738.30244451</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10009,7 +10441,7 @@
         <v>-33668012.68264451</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10042,7 +10474,7 @@
         <v>-33956248.73254451</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10075,7 +10507,7 @@
         <v>-34056248.73254451</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10108,7 +10540,7 @@
         <v>-34083100.95564451</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10141,7 +10573,7 @@
         <v>-34083100.95564451</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10174,7 +10606,7 @@
         <v>-33413318.05004451</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10207,7 +10639,7 @@
         <v>-33413318.05004451</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10240,7 +10672,7 @@
         <v>-33325017.47284451</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10273,7 +10705,7 @@
         <v>-33325017.47284451</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10306,7 +10738,7 @@
         <v>-33460253.03024451</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10339,7 +10771,7 @@
         <v>-33460253.03024451</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10372,7 +10804,7 @@
         <v>-33682704.04064451</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10405,7 +10837,7 @@
         <v>-33604704.04064451</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10735,7 +11167,7 @@
         <v>-35506800.79824451</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11164,7 +11596,7 @@
         <v>-35196282.87224451</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11197,7 +11629,7 @@
         <v>-35196282.87224451</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11230,7 +11662,7 @@
         <v>-35196282.87224451</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11263,7 +11695,7 @@
         <v>-35196282.87224451</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11296,7 +11728,7 @@
         <v>-34855461.35984451</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11329,7 +11761,7 @@
         <v>-34855461.35984451</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11362,7 +11794,7 @@
         <v>-34425175.75694451</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11395,7 +11827,7 @@
         <v>-34425175.75694451</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11428,7 +11860,7 @@
         <v>-34425175.75694451</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11494,7 +11926,7 @@
         <v>-34475932.75694451</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11527,7 +11959,7 @@
         <v>-34294797.19084451</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11560,7 +11992,7 @@
         <v>-34294797.19084451</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11593,7 +12025,7 @@
         <v>-34353482.95944451</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11626,7 +12058,7 @@
         <v>-34362168.72804451</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11659,7 +12091,7 @@
         <v>-34358968.72804451</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12748,7 +13180,7 @@
         <v>-33183300.78104451</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12781,7 +13213,7 @@
         <v>-33390797.7158445</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12814,7 +13246,7 @@
         <v>-33413977.5758445</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12847,7 +13279,7 @@
         <v>-33423757.30434451</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12880,7 +13312,7 @@
         <v>-33403757.30434451</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13452,6 +13884,6 @@
       <c r="M386" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest VET.xlsx
+++ b/BackTest/2019-10-30 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-32749636.4888</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-32756660.4888</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-33424142.90770001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-30995761.84230687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-30786530.31980687</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-30778788.81940687</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-30974975.32450687</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-30983911.74550687</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-31007814.74550687</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -5302,14 +5302,10 @@
         <v>-34888424.28405766</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5339,429 +5335,393 @@
         <v>-35386424.28405766</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F151" t="n">
+        <v>156988.2023</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-35543412.48635766</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F152" t="n">
+        <v>247883.5886</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-35295528.89775766</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-35295528.89775766</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21394.0299</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-35316922.92765766</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F155" t="n">
+        <v>393333.9131</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-34923589.01455766</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11091.1713</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-34912497.84325766</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6842.0614</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-34919339.90465765</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F158" t="n">
+        <v>67809.1421</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-34919339.90465765</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-34919339.90465765</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19196.1322</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-34900143.77245765</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C151" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D151" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E151" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F151" t="n">
-        <v>156988.2023</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-35543412.48635766</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C152" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D152" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E152" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F152" t="n">
-        <v>247883.5886</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-35295528.89775766</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C153" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D153" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E153" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-35295528.89775766</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C154" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D154" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E154" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F154" t="n">
-        <v>21394.0299</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-35316922.92765766</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F155" t="n">
-        <v>393333.9131</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-34923589.01455766</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11091.1713</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-34912497.84325766</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6842.0614</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-34919339.90465765</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F158" t="n">
-        <v>67809.1421</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-34919339.90465765</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F159" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-34919339.90465765</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C160" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D160" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19196.1322</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-34900143.77245765</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5796,7 +5756,7 @@
         <v>4.58</v>
       </c>
       <c r="J161" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5837,7 +5797,7 @@
         <v>4.56</v>
       </c>
       <c r="J162" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5878,7 +5838,7 @@
         <v>4.57</v>
       </c>
       <c r="J163" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5919,7 +5879,7 @@
         <v>4.57</v>
       </c>
       <c r="J164" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5960,7 +5920,7 @@
         <v>4.57</v>
       </c>
       <c r="J165" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6001,7 +5961,7 @@
         <v>4.54</v>
       </c>
       <c r="J166" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6042,7 +6002,7 @@
         <v>4.54</v>
       </c>
       <c r="J167" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6083,7 +6043,7 @@
         <v>4.54</v>
       </c>
       <c r="J168" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6124,7 +6084,7 @@
         <v>4.54</v>
       </c>
       <c r="J169" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6165,7 +6125,7 @@
         <v>4.56</v>
       </c>
       <c r="J170" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6206,7 +6166,7 @@
         <v>4.52</v>
       </c>
       <c r="J171" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6247,7 +6207,7 @@
         <v>4.55</v>
       </c>
       <c r="J172" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6288,7 +6248,7 @@
         <v>4.55</v>
       </c>
       <c r="J173" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6329,7 +6289,7 @@
         <v>4.54</v>
       </c>
       <c r="J174" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6370,7 +6330,7 @@
         <v>4.54</v>
       </c>
       <c r="J175" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6411,7 +6371,7 @@
         <v>4.54</v>
       </c>
       <c r="J176" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6452,7 +6412,7 @@
         <v>4.54</v>
       </c>
       <c r="J177" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6493,7 +6453,7 @@
         <v>4.52</v>
       </c>
       <c r="J178" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6534,7 +6494,7 @@
         <v>4.51</v>
       </c>
       <c r="J179" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6575,7 +6535,7 @@
         <v>4.51</v>
       </c>
       <c r="J180" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6616,7 +6576,7 @@
         <v>4.53</v>
       </c>
       <c r="J181" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6657,7 +6617,7 @@
         <v>4.53</v>
       </c>
       <c r="J182" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6698,7 +6658,7 @@
         <v>4.54</v>
       </c>
       <c r="J183" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6733,13 +6693,11 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6774,13 +6732,11 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6815,13 +6771,11 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6856,13 +6810,11 @@
         <v>-35508146.07239625</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6897,13 +6849,11 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>4.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6938,13 +6888,11 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6979,13 +6927,11 @@
         <v>-35573536.36089625</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7020,13 +6966,11 @@
         <v>-35642711.00749625</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7061,13 +7005,11 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7102,13 +7044,11 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7143,13 +7083,11 @@
         <v>-35596949.35979625</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7184,13 +7122,11 @@
         <v>-35582512.04636341</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7225,13 +7161,11 @@
         <v>-35585512.04636341</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7270,7 +7204,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7305,13 +7239,11 @@
         <v>-35244513.23626341</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>4.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7350,7 +7282,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7389,7 +7321,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7428,7 +7360,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7463,19 +7395,19 @@
         <v>-35656195.60766342</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>1.038763676148796</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7502,17 +7434,11 @@
         <v>-35616195.60766342</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7541,17 +7467,11 @@
         <v>-35616195.60766342</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7580,17 +7500,11 @@
         <v>-35901171.84396341</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7619,17 +7533,11 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7658,17 +7566,11 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7697,17 +7599,11 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7736,17 +7632,11 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7775,17 +7665,11 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7817,14 +7701,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7856,14 +7734,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7895,14 +7767,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7934,14 +7800,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7970,17 +7830,11 @@
         <v>-34904058.56516341</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8012,14 +7866,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8051,14 +7899,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8090,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8126,17 +7962,11 @@
         <v>-33688740.95946341</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8165,17 +7995,11 @@
         <v>-33487547.55026341</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8204,17 +8028,11 @@
         <v>-33756130.49986341</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8243,17 +8061,11 @@
         <v>-32299652.78606341</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8285,14 +8097,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8321,17 +8127,11 @@
         <v>-33249471.37506341</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8360,17 +8160,11 @@
         <v>-32634862.44416341</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8399,17 +8193,11 @@
         <v>-31810123.62716341</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8438,17 +8226,11 @@
         <v>-31810123.62716341</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8480,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8519,14 +8295,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8558,14 +8328,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8597,14 +8361,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8636,14 +8394,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8675,14 +8427,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8714,14 +8460,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8753,14 +8493,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8792,14 +8526,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8831,14 +8559,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8867,19 +8589,11 @@
         <v>-31679522.87984451</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J238" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8908,19 +8622,11 @@
         <v>-31679522.87984451</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J239" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8949,19 +8655,11 @@
         <v>-31554424.08234451</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J240" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8993,14 +8691,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9032,14 +8724,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +8757,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +8790,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9149,14 +8823,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9188,14 +8856,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9227,14 +8889,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9266,14 +8922,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9305,14 +8955,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9344,14 +8988,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9383,14 +9021,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9422,14 +9054,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9461,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9500,14 +9120,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9539,14 +9153,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9575,23 +9183,15 @@
         <v>-33364884.42764451</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
-        <v>1.083552915766739</v>
-      </c>
-      <c r="M256" t="n">
-        <v>1.077922077922078</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9616,7 +9216,7 @@
         <v>-33404136.94844451</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9649,7 +9249,7 @@
         <v>-34391811.38434451</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9814,7 +9414,7 @@
         <v>-35036705.2048445</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9847,7 +9447,7 @@
         <v>-35036705.2048445</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9880,7 +9480,7 @@
         <v>-35059225.3847445</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9913,7 +9513,7 @@
         <v>-34986521.2293445</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9946,7 +9546,7 @@
         <v>-34986501.2293445</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9979,7 +9579,7 @@
         <v>-34419501.2293445</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10012,7 +9612,7 @@
         <v>-34419501.2293445</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10045,7 +9645,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10078,7 +9678,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10111,7 +9711,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10144,7 +9744,7 @@
         <v>-35151118.81894451</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10177,7 +9777,7 @@
         <v>-35151118.81894451</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10210,7 +9810,7 @@
         <v>-34881829.27104451</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10243,7 +9843,7 @@
         <v>-34909829.27104451</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10276,7 +9876,7 @@
         <v>-34200096.56784451</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10309,7 +9909,7 @@
         <v>-34200096.56784451</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10342,7 +9942,7 @@
         <v>-33677965.99154451</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10375,7 +9975,7 @@
         <v>-33353738.30244451</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10408,7 +10008,7 @@
         <v>-33390738.30244451</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10441,7 +10041,7 @@
         <v>-33668012.68264451</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10474,7 +10074,7 @@
         <v>-33956248.73254451</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10507,7 +10107,7 @@
         <v>-34056248.73254451</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10540,7 +10140,7 @@
         <v>-34083100.95564451</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10573,7 +10173,7 @@
         <v>-34083100.95564451</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10606,7 +10206,7 @@
         <v>-33413318.05004451</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10639,7 +10239,7 @@
         <v>-33413318.05004451</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10672,7 +10272,7 @@
         <v>-33325017.47284451</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10705,7 +10305,7 @@
         <v>-33325017.47284451</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10738,7 +10338,7 @@
         <v>-33460253.03024451</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10771,7 +10371,7 @@
         <v>-33460253.03024451</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10804,7 +10404,7 @@
         <v>-33682704.04064451</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10837,7 +10437,7 @@
         <v>-33604704.04064451</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -13884,6 +13484,6 @@
       <c r="M386" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest VET.xlsx
+++ b/BackTest/2019-10-30 BackTest VET.xlsx
@@ -550,7 +550,7 @@
         <v>-32749636.4888</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-32756660.4888</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-33424142.90770001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-30995761.84230687</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-30786530.31980687</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-30778788.81940687</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-30974975.32450687</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-30983911.74550687</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-31007814.74550687</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -5434,14 +5434,10 @@
         <v>-35295528.89775766</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5471,1317 +5467,1127 @@
         <v>-35316922.92765766</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>4.57</v>
       </c>
-      <c r="J154" t="n">
+      <c r="C155" t="n">
         <v>4.57</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="D155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F155" t="n">
+        <v>393333.9131</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-34923589.01455766</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11091.1713</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-34912497.84325766</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6842.0614</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-34919339.90465765</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F158" t="n">
+        <v>67809.1421</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-34919339.90465765</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-34919339.90465765</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19196.1322</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-34900143.77245765</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-34905143.77245765</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F162" t="n">
+        <v>174469.0391</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-34730674.73335765</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F163" t="n">
+        <v>48257</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-34730674.73335765</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F164" t="n">
+        <v>62716.5185</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-34730674.73335765</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F165" t="n">
+        <v>219340.5389</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-34950015.27225766</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F166" t="n">
+        <v>457733.8253</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-34950015.27225766</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14453.1534</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-34950015.27225766</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F168" t="n">
+        <v>98030.7546</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-34950015.27225766</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21929.82456140351</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-34928085.44769625</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F170" t="n">
+        <v>692793.125</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-35620878.57269625</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-35619878.57269625</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F172" t="n">
+        <v>178</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-35619878.57269625</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F173" t="n">
+        <v>31443.9787</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-35651322.55139625</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F174" t="n">
+        <v>119.9754</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-35651322.55139625</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F175" t="n">
+        <v>68196.3241</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-35651322.55139625</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3682.8193</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-35651322.55139625</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7822.3451</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-35659144.89649625</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7373.562</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-35666518.45849625</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J178" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7373.5619</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-35666518.45849625</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J179" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F155" t="n">
-        <v>393333.9131</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-34923589.01455766</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F180" t="n">
+        <v>115184.3267</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-35551334.13179625</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J180" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11091.1713</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-34912497.84325766</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6842.0614</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-34919339.90465765</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F181" t="n">
+        <v>153000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-35551334.13179625</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J181" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F182" t="n">
+        <v>99.5594</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-35551234.57239625</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J182" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F158" t="n">
-        <v>67809.1421</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-34919339.90465765</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3589.3127</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-35551234.57239625</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J183" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19950</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-35571184.57239625</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J184" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1060.2029</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-35571184.57239625</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J185" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
         <v>4.57</v>
       </c>
-      <c r="C159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F159" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-34919339.90465765</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C160" t="n">
+      <c r="C186" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D186" t="n">
         <v>4.58</v>
       </c>
-      <c r="D160" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19196.1322</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-34900143.77245765</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="E186" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F186" t="n">
+        <v>579952.4726</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-35571184.57239625</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J186" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C161" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D161" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E161" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-34905143.77245765</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C162" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D162" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E162" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F162" t="n">
-        <v>174469.0391</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-34730674.73335765</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F163" t="n">
-        <v>48257</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-34730674.73335765</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C164" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D164" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E164" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F164" t="n">
-        <v>62716.5185</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-34730674.73335765</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C165" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D165" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E165" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F165" t="n">
-        <v>219340.5389</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-34950015.27225766</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D166" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E166" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F166" t="n">
-        <v>457733.8253</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-34950015.27225766</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C167" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D167" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E167" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F167" t="n">
-        <v>14453.1534</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-34950015.27225766</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D168" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E168" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F168" t="n">
-        <v>98030.7546</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-34950015.27225766</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C169" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D169" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E169" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F169" t="n">
-        <v>21929.82456140351</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-34928085.44769625</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D170" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E170" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F170" t="n">
-        <v>692793.125</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-35620878.57269625</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C171" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D171" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E171" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-35619878.57269625</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D172" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E172" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F172" t="n">
-        <v>178</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-35619878.57269625</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C173" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D173" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E173" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F173" t="n">
-        <v>31443.9787</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-35651322.55139625</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C174" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D174" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E174" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F174" t="n">
-        <v>119.9754</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-35651322.55139625</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C175" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D175" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E175" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F175" t="n">
-        <v>68196.3241</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-35651322.55139625</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E176" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F176" t="n">
-        <v>3682.8193</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-35651322.55139625</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J176" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D177" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F177" t="n">
-        <v>7822.3451</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-35659144.89649625</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D178" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F178" t="n">
-        <v>7373.562</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-35666518.45849625</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="J178" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D179" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E179" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F179" t="n">
-        <v>7373.5619</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-35666518.45849625</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F180" t="n">
-        <v>115184.3267</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-35551334.13179625</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F181" t="n">
-        <v>153000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-35551334.13179625</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E182" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F182" t="n">
-        <v>99.5594</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-35551234.57239625</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J182" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D183" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3589.3127</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-35551234.57239625</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J183" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D184" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E184" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F184" t="n">
-        <v>19950</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-35571184.57239625</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D185" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1060.2029</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-35571184.57239625</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F186" t="n">
-        <v>579952.4726</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-35571184.57239625</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +6616,13 @@
         <v>-35508146.07239625</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J187" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6849,11 +6657,13 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4.59</v>
+      </c>
       <c r="J188" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6888,11 +6698,13 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J189" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6927,11 +6739,13 @@
         <v>-35573536.36089625</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J190" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6966,11 +6780,13 @@
         <v>-35642711.00749625</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J191" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7005,11 +6821,13 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J192" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7044,11 +6862,13 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J193" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7087,7 +6907,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7126,7 +6946,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7165,7 +6985,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7204,7 +7024,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7243,7 +7063,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7282,7 +7102,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7321,7 +7141,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7360,7 +7180,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7395,1440 +7215,1700 @@
         <v>-35656195.60766342</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F203" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-35616195.60766342</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F204" t="n">
+        <v>116897.3542</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-35616195.60766342</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>284976.2363</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-35901171.84396341</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F206" t="n">
+        <v>284976.2363</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F207" t="n">
+        <v>163.3741</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F208" t="n">
+        <v>18677.6703</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F209" t="n">
+        <v>108625.9173</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3407.8909</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F211" t="n">
+        <v>326232.2088</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F212" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-36186148.08026341</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F213" t="n">
+        <v>102083.8949</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-36084064.18536341</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F214" t="n">
+        <v>499774.6887</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-35584289.49666341</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F215" t="n">
+        <v>680230.9314999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-34904058.56516341</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F216" t="n">
+        <v>278530.0362</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-35182588.60136341</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F217" t="n">
+        <v>220840.0428</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-35182588.60136341</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1362933.1855</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-33819655.41586341</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F219" t="n">
+        <v>130914.4564</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-33688740.95946341</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F220" t="n">
+        <v>201193.4092</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-33487547.55026341</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F221" t="n">
+        <v>268582.9496</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-33756130.49986341</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1456477.7138</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-32299652.78606341</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>949818.589</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-33249471.37506341</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>508928.5714</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-33249471.37506341</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F225" t="n">
+        <v>614608.9309</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-32634862.44416341</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F226" t="n">
+        <v>824738.817</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-31810123.62716341</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F227" t="n">
+        <v>282381.0354997742</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-31810123.62716341</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>895370.0603811024</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-32705493.68754451</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F229" t="n">
+        <v>83986.3904</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-32789480.07794451</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F230" t="n">
+        <v>24453.7125</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-32789480.07794451</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F231" t="n">
+        <v>578489.5507</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-32210990.52724451</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F232" t="n">
+        <v>631175.3698</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-31579815.15744451</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F233" t="n">
+        <v>742856.7058999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-30836958.45154451</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>103747.5944</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-30940706.04594451</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F235" t="n">
+        <v>448772.5838</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-30491933.46214451</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D236" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F236" t="n">
+        <v>915546.7674</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-31407480.22954451</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F237" t="n">
+        <v>272042.6503</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-31679522.87984451</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F238" t="n">
+        <v>150</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-31679522.87984451</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8237.527700000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-31679522.87984451</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F240" t="n">
+        <v>125098.7975</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-31554424.08234451</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>161984.2</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-31392439.88234451</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C242" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2989</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-31389450.88234451</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F243" t="n">
+        <v>90537.8486</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-31479988.73094451</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>118414.4212</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-31361574.30974451</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C245" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1313828.5433</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-32675402.85304451</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1.038763676148796</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F203" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-35616195.60766342</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F204" t="n">
-        <v>116897.3542</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-35616195.60766342</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F205" t="n">
-        <v>284976.2363</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-35901171.84396341</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F206" t="n">
-        <v>284976.2363</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D207" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E207" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F207" t="n">
-        <v>163.3741</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F208" t="n">
-        <v>18677.6703</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D209" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F209" t="n">
-        <v>108625.9173</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F210" t="n">
-        <v>3407.8909</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F211" t="n">
-        <v>326232.2088</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E212" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F212" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-36186148.08026341</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D213" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="F213" t="n">
-        <v>102083.8949</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-36084064.18536341</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="D214" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="E214" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F214" t="n">
-        <v>499774.6887</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-35584289.49666341</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D215" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="F215" t="n">
-        <v>680230.9314999999</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-34904058.56516341</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F216" t="n">
-        <v>278530.0362</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-35182588.60136341</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F217" t="n">
-        <v>220840.0428</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-35182588.60136341</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="D218" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="E218" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1362933.1855</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-33819655.41586341</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="C219" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="D219" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E219" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="F219" t="n">
-        <v>130914.4564</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-33688740.95946341</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D220" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E220" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F220" t="n">
-        <v>201193.4092</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-33487547.55026341</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="D221" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="E221" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F221" t="n">
-        <v>268582.9496</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-33756130.49986341</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D222" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1456477.7138</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-32299652.78606341</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5</v>
-      </c>
-      <c r="D223" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E223" t="n">
-        <v>5</v>
-      </c>
-      <c r="F223" t="n">
-        <v>949818.589</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-33249471.37506341</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5</v>
-      </c>
-      <c r="D224" t="n">
-        <v>5</v>
-      </c>
-      <c r="E224" t="n">
-        <v>5</v>
-      </c>
-      <c r="F224" t="n">
-        <v>508928.5714</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-33249471.37506341</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C225" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="D225" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E225" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F225" t="n">
-        <v>614608.9309</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-32634862.44416341</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D226" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E226" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="F226" t="n">
-        <v>824738.817</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-31810123.62716341</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C227" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D227" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F227" t="n">
-        <v>282381.0354997742</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-31810123.62716341</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C228" t="n">
-        <v>5</v>
-      </c>
-      <c r="D228" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>895370.0603811024</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-32705493.68754451</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="C229" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="D229" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="E229" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F229" t="n">
-        <v>83986.3904</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-32789480.07794451</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="D230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F230" t="n">
-        <v>24453.7125</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-32789480.07794451</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D231" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="E231" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F231" t="n">
-        <v>578489.5507</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-32210990.52724451</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E232" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F232" t="n">
-        <v>631175.3698</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-31579815.15744451</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D233" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E233" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F233" t="n">
-        <v>742856.7058999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-30836958.45154451</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5</v>
-      </c>
-      <c r="D234" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E234" t="n">
-        <v>5</v>
-      </c>
-      <c r="F234" t="n">
-        <v>103747.5944</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-30940706.04594451</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C235" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D235" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E235" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>448772.5838</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-30491933.46214451</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D236" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E236" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F236" t="n">
-        <v>915546.7674</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-31407480.22954451</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D237" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E237" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F237" t="n">
-        <v>272042.6503</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-31679522.87984451</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E238" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F238" t="n">
-        <v>150</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-31679522.87984451</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="C239" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D239" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E239" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F239" t="n">
-        <v>8237.527700000001</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-31679522.87984451</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E240" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F240" t="n">
-        <v>125098.7975</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-31554424.08234451</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>5</v>
-      </c>
-      <c r="C241" t="n">
-        <v>5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>161984.2</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-31392439.88234451</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="D242" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E242" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2989</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-31389450.88234451</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E243" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F243" t="n">
-        <v>90537.8486</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-31479988.73094451</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>5</v>
-      </c>
-      <c r="C244" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D244" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E244" t="n">
-        <v>5</v>
-      </c>
-      <c r="F244" t="n">
-        <v>118414.4212</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-31361574.30974451</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C245" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D245" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E245" t="n">
-        <v>5</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1313828.5433</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-32675402.85304451</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>1.111740088105727</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1.104212860310422</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8853,7 +8933,7 @@
         <v>-32743402.85304451</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8886,7 +8966,7 @@
         <v>-32743392.85304451</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8919,7 +8999,7 @@
         <v>-32749412.85304451</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8952,7 +9032,7 @@
         <v>-32704053.57164451</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8985,7 +9065,7 @@
         <v>-32965511.07794451</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9018,7 +9098,7 @@
         <v>-32965501.07794451</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9051,7 +9131,7 @@
         <v>-33070355.40874451</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9084,7 +9164,7 @@
         <v>-33303363.94044451</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9117,7 +9197,7 @@
         <v>-33294068.42764451</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9150,7 +9230,7 @@
         <v>-33294068.42764451</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9183,7 +9263,7 @@
         <v>-33364884.42764451</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9216,7 +9296,7 @@
         <v>-33404136.94844451</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9249,7 +9329,7 @@
         <v>-34391811.38434451</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9282,7 +9362,7 @@
         <v>-34902837.93994451</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9843,7 +9923,7 @@
         <v>-34909829.27104451</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9942,7 +10022,7 @@
         <v>-33677965.99154451</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9975,7 +10055,7 @@
         <v>-33353738.30244451</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10008,7 +10088,7 @@
         <v>-33390738.30244451</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10041,7 +10121,7 @@
         <v>-33668012.68264451</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10074,7 +10154,7 @@
         <v>-33956248.73254451</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
